--- a/TestingTelBot.xlsx
+++ b/TestingTelBot.xlsx
@@ -178,7 +178,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. В преветственном сообщении нажать команду: /values</t>
+      <t xml:space="preserve">. В приветственном сообщении нажать команду: /values</t>
     </r>
   </si>
   <si>
@@ -210,7 +210,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">В преветственном сообщении нажать команду: /help</t>
+      <t xml:space="preserve">В приветственном сообщении нажать команду: /help</t>
     </r>
   </si>
   <si>
@@ -2073,8 +2073,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2192,7 +2192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2636,7 +2636,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/TestingTelBot.xlsx
+++ b/TestingTelBot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейсы" sheetId="1" state="visible" r:id="rId2"/>
@@ -2073,7 +2073,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2636,7 +2636,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
